--- a/NagoyaHotels.xlsx
+++ b/NagoyaHotels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859EBFFB-D60C-9240-B2C6-CAE7D8F50B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B2AF8-CC3B-B142-BB29-4EFBB5CF4863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="840" windowWidth="28100" windowHeight="17380" xr2:uid="{C354B662-A001-0648-B82D-5A9C2EDB1580}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Hotel Rubura Ozan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,14 @@
   </si>
   <si>
     <t>https://en.nagoya-u.ac.jp/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +549,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -570,8 +578,8 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
@@ -587,8 +595,8 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="b">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -604,8 +612,8 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="b">
-        <v>0</v>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -621,8 +629,8 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>0</v>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -638,8 +646,8 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>0</v>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -655,8 +663,8 @@
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="b">
-        <v>0</v>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -672,8 +680,8 @@
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="b">
-        <v>0</v>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -689,8 +697,8 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="b">
-        <v>0</v>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -706,8 +714,8 @@
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="b">
-        <v>0</v>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -723,8 +731,8 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="b">
-        <v>0</v>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>

--- a/NagoyaHotels.xlsx
+++ b/NagoyaHotels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B2AF8-CC3B-B142-BB29-4EFBB5CF4863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A931CEEF-0A82-1748-B19C-EF84058320E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="840" windowWidth="28100" windowHeight="17380" xr2:uid="{C354B662-A001-0648-B82D-5A9C2EDB1580}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
-  <si>
-    <t>Hotel Rubura Ozan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,82 +54,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Venue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Washington R&amp;B Hotel Nagoya Shinkansenguchi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/jp/r-and-b-nagoya-shinkansenguchi.en-gb.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.toyoko-inn.com/eng/search/detail/00028/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toyoko Inn Nagoya Meieki Minami</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/jp/r-and-b-nagoyanishiki.en-gb.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WASHINGTON R&amp;B Hotel Nagoya Nishiki</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.fujihotel-nagoya.com/daini/eng/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daini Fuji Hotel Nagoya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel Inn Nagoya Atsuta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://excel-inn.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel Route-Inn Nagoya Higashi Betsuin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/jp/route-inn-nagoya-higashi-betsuin.en-gb.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel Route-Inn Nagoya Imaike Ekimae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/jp/route-inn-nagoya-imaike-ekimae.en-gb.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel Mielparque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.mielparque.jp/nagoya/en/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.booking.com/hotel/jp/hoteruruburawang-shan.en-gb.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://en.nagoya-u.ac.jp/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +67,66 @@
   </si>
   <si>
     <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KKR Hotel Nagoya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/jp/kkr-hotel-nagoya.en-gb.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nikko Style Nagoya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.okura-nikko.com/japan/nagoya/nikko-style-nagoya/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan Hinata Hotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/jp/tiffany-blue-japan-hinata-1-chi-xia-yi-tu-bu-2fen-1ldk-50m-2-8ming.en-gb.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Tower Hotel Nagoya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://thetowerhotel.jp/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baselayerhotel.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://go-solarehotels.reservation.jp/en/hotels/lamplightbookshotel-nagoya/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lamp Light Books Hotel Nagoya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trip &amp; Sleep Hostel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/jp/trip-amp-sleep-hostel.en-gb.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Layer Hotel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15116D07-7DB0-0D4E-83DE-F391B2C1BED4}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -559,30 +543,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>136.96829</v>
@@ -593,155 +577,121 @@
     </row>
     <row r="3" spans="1:5" ht="18">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>136.87746899999999</v>
+        <v>136.94449</v>
       </c>
       <c r="E3" s="1">
-        <v>35.171325000000003</v>
+        <v>35.167020000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>136.89064099999999</v>
+        <v>136.90904</v>
       </c>
       <c r="E4" s="1">
-        <v>35.164924999999997</v>
+        <v>35.173360000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>136.90397999999999</v>
+        <v>136.90015</v>
       </c>
       <c r="E5" s="1">
-        <v>35.172919999999998</v>
+        <v>35.171959999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
-        <v>136.91488000000001</v>
+        <v>136.89499000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>35.17266</v>
+        <v>35.170490000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>136.91165000000001</v>
+        <v>136.90337</v>
       </c>
       <c r="E7" s="1">
-        <v>35.119489999999999</v>
+        <v>35.159559999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>136.90564000000001</v>
+        <v>136.89690999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>35.154240000000001</v>
+        <v>35.180999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="1">
-        <v>136.93527</v>
+        <v>136.89115000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>35.170929999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1">
-        <v>136.92895999999999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>35.171430000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1">
-        <v>136.94863000000001</v>
-      </c>
-      <c r="E11" s="1">
-        <v>35.166800000000002</v>
+        <v>35.17015</v>
       </c>
     </row>
   </sheetData>

--- a/NagoyaHotels.xlsx
+++ b/NagoyaHotels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A931CEEF-0A82-1748-B19C-EF84058320E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46E03E1-200A-D248-8A73-CC54DE08BAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="840" windowWidth="28100" windowHeight="17380" xr2:uid="{C354B662-A001-0648-B82D-5A9C2EDB1580}"/>
   </bookViews>
@@ -86,18 +86,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Japan Hinata Hotel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Color</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.booking.com/hotel/jp/tiffany-blue-japan-hinata-1-chi-xia-yi-tu-bu-2fen-1ldk-50m-2-8ming.en-gb.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The Tower Hotel Nagoya</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +119,14 @@
   </si>
   <si>
     <t>Base Layer Hotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel Route-Inn Nagoya Imaike Ekimae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.booking.com/hotel/jp/route-inn-nagoya-imaike-ekimae.en-gb.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -577,30 +577,30 @@
     </row>
     <row r="3" spans="1:5" ht="18">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
-        <v>136.94449</v>
+        <v>136.93588</v>
       </c>
       <c r="E3" s="1">
-        <v>35.167020000000001</v>
+        <v>35.170070000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>136.90904</v>
@@ -611,13 +611,13 @@
     </row>
     <row r="5" spans="1:5" ht="18">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>136.90015</v>
@@ -628,13 +628,13 @@
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>136.89499000000001</v>
@@ -645,13 +645,13 @@
     </row>
     <row r="7" spans="1:5" ht="18">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>136.90337</v>
